--- a/04 Economist Style Visualization/Practice File.xlsx
+++ b/04 Economist Style Visualization/Practice File.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Practice Projects/43 Economist Style Data Visualization In Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Github/Microsoft-Excel-For-Analytics/04 Economist Style Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{082B3C4B-9914-B043-AFC9-906433282BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{082B3C4B-9914-B043-AFC9-906433282BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CFF01CF-1F8E-43FD-A239-CCAC98A65AB8}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="2" xr2:uid="{B24119F6-0F42-2247-B930-E946363B9DEB}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11914" activeTab="2" xr2:uid="{B24119F6-0F42-2247-B930-E946363B9DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -268,13 +268,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -306,7 +306,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -850,7 +850,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2624,15 +2624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>629437</xdr:colOff>
+      <xdr:colOff>214491</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>176503</xdr:rowOff>
+      <xdr:rowOff>166382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9269</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>434336</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>166861</xdr:rowOff>
+      <xdr:rowOff>156740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2661,9 +2661,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2701,7 +2701,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2807,7 +2807,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2949,7 +2949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2963,14 +2963,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3036,7 +3036,7 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
@@ -3045,7 +3045,7 @@
     <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="18.149999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="18.149999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J17" s="11">
         <v>14</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J18" s="11">
         <v>15</v>
       </c>
@@ -3389,17 +3389,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597A33D-257A-E149-B3E4-F27B8A214D27}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
